--- a/Aws/SAP/White Paper.xlsx
+++ b/Aws/SAP/White Paper.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AWS セキュリティのベストプラクティス" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="293">
   <si>
     <t>⼀般的な設計の原則</t>
     <phoneticPr fontId="1"/>
@@ -2056,6 +2057,1792 @@
   </si>
   <si>
     <t>レビュープロセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSは責任分担モデルにおいて、グローバルで安全なインフラストラクチャと、コンピューティング、ストレージ、</t>
+    <rPh sb="4" eb="6">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンタン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーキング、DBの基盤サービスおよびそれより上位のサービスを提供します。</t>
+    <rPh sb="12" eb="14">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSが提供する広範なセキュリティサービスと機能を使用して、AWSのお客様は資産を保護できます。　お客様は、</t>
+    <rPh sb="4" eb="6">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キャクサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラウド内にあるデータの機密性、整合性、可用性を保護し、情報保護のための特定のビジネス要件を満たす</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>キミツセイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カヨウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>責任を持ちます。</t>
+    <rPh sb="0" eb="2">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のトピックについて説明をする。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSとお客様との間でセキュリティ上の責任を共有する方法。</t>
+    <rPh sb="5" eb="7">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資産を定義および分類する方法。</t>
+    <rPh sb="0" eb="2">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特権アカウントとグループを使用して、データへのユーザアクセスを管理する方法。</t>
+    <rPh sb="0" eb="2">
+      <t>トッケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ、OS、ネットワークの保護に関するベストプラクティス。</t>
+    <rPh sb="14" eb="16">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ上の目標の達成におけるモニタリングとアラートの重要性。</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ジュウヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSの責任共有モデル</t>
+    <rPh sb="4" eb="6">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSは、クラウドにおいて安全なグローバルインフラストラクチャおよびサービスを提供します。</t>
+    <rPh sb="13" eb="15">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSを基盤としてシステムを構築し、AWSの機能を利用するISMSを設計できます。</t>
+    <rPh sb="4" eb="6">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>責任共有モデルは、セキュリティ上の目標に向けてAWSとお客様が連携する必要があります。</t>
+    <rPh sb="0" eb="2">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSが安全なインフラストラクチャとサービスを提供する一方で、お客様は安全なOS、プラットフォーム、</t>
+    <rPh sb="4" eb="6">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを用意する責任を持ちます。</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSでは提供するサービスの種類ごとに責任共有モデルが用意されている。</t>
+    <rPh sb="5" eb="7">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフラストラクチャサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテナサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽象化サービス</t>
+    <rPh sb="0" eb="2">
+      <t>チュウショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSの安全なグローバルインフラストラクチャについて</t>
+    <rPh sb="4" eb="6">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMサービスの使用</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リージョン、アベイラビリティゾーン、エンドポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSリージョンを使用して、ネットワークレイテンシーおよび規制コンプライアンスを管理します。</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のリージョンに保存されたデータは、そのリージョンの外部にレプリケーションされません。</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リージョンは可用性を考慮して設計されており、少なくとも２つ以上のアベイラビリティ・ゾーンで構成されます。</t>
+    <rPh sb="6" eb="9">
+      <t>カヨウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アベイラビリティゾーンは、障害の分離を目的として設計されます。アベイラビリティゾーン間は高速リンクを使用して</t>
+    <rPh sb="13" eb="15">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相互接続されているため、アプリケーションは同じリージョン内のアベイラビリティゾーン間の通信にLAN接続を利用できます。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムは複数のアベイラビリティゾーンにまたがることができるため、災害時のアベイラビリティゾーンの一時的または</t>
+    <rPh sb="5" eb="7">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>イチジテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長時間の障害に対応できるようにシステム設計することをお勧めします。</t>
+    <rPh sb="0" eb="3">
+      <t>チョウジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSによって管理されるサービスエンドポイントは、管理アクセスを提供します。</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSサービスのセキュリティ上の責任共有</t>
+    <rPh sb="14" eb="15">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSサービスのセキュリティ上の責任共有を理解するためにサービスを３つの主要なカテゴリに分類します。</t>
+    <rPh sb="14" eb="15">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフラストラクチャサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテナサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽象化サービス</t>
+    <rPh sb="0" eb="3">
+      <t>チュウショウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各カテゴリのセキュリティ所有権モデルは、機能の操作方法およびアクセス方法に基づいて少しずつ異なります。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2、EBS、Auto Scaling、VPCなど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSを管理し、仮想化スタックのユーザー層へのアクセスが可能なあらゆる認証管理システムを設定して運用できます。</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カソウカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDS、EMR、Amazon Elastic Beanstalk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSまたはプラットフォーム層を管理しない場合がある。</t>
+    <rPh sb="13" eb="14">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSはこうした「アプリケーション」コンテナに対してマネージド型サービスを提供します。</t>
+    <rPh sb="23" eb="24">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お客様は、ファイアウォールルールなどのネットワーク制御のセットアップと管理、およびIAMとは別に</t>
+    <rPh sb="1" eb="3">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラットフォームレベルのIDとアクセス管理を担当します。</t>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon S3、Glacier、Amazon DynamoDB、Amason Simple Queuing Service、Amazon Simple Email Serviceなど。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お客様はAWS APIを通して、これらの抽象化サービスのエンドポイントにアクセスして使用します。</t>
+    <rPh sb="1" eb="3">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>チュウショウカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trusted Advisorツールの使用</t>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSH(22）、Telnet（23）、RDP(3389)、5500（VNC）のみに制限されているか？</t>
+    <rPh sb="41" eb="43">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBへの接続ポートが制限されているか？</t>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMが設定されているかどうか？</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFA(Multi-Factor Authentication)が設定されているか？</t>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSでのアセットの定義と分類</t>
+    <rPh sb="10" eb="12">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISAMの設計を開始する前に、保護する必要がある全ての情報アセットを特定し、それらを保護するための実現可能な</t>
+    <rPh sb="5" eb="7">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソリューションを技術面とコスト面の両方から検討します。</t>
+    <rPh sb="8" eb="10">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アセットは２つのカテゴリに分類されます。</t>
+    <rPh sb="13" eb="15">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本質的要素</t>
+    <rPh sb="0" eb="2">
+      <t>ホンシツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本質的要素をサポートする構成要素</t>
+    <rPh sb="0" eb="3">
+      <t>ホンシツテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSでアセットを保護するためのISMSの設計</t>
+    <rPh sb="9" eb="11">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アセット、カテゴリ、コストを特定したら、AWSでの情報セキュリティマネージメントシステム（ISMS)の実装・運用・</t>
+    <rPh sb="14" eb="16">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モニタリング・確認・保守・改良に関する基準を定めます。</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホシュ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ要件は組織ごとに異なります。　影響する要因としては、次のものがあります。</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスのニーズや目標</t>
+    <rPh sb="9" eb="11">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採用しているプロセス</t>
+    <rPh sb="0" eb="2">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織の規模や構造</t>
+    <rPh sb="0" eb="2">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キボ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS で ISMS を設計および構築するための段階的アプローチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコープと境界の定義</t>
+    <rPh sb="5" eb="7">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコープに含めるリージョン、アベイラビリティゾーン、インスタンス、AWSリソースを定義します。</t>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISMSポリシーの定義</t>
+    <rPh sb="9" eb="11">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報セキュリティに関するアクションの方向性と指針</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法律、契約、規制による要件</t>
+    <rPh sb="0" eb="2">
+      <t>ホウリツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織のリスク管理の目標</t>
+    <rPh sb="0" eb="2">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスクの評価方法</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マネジメントによる計画の承認方法</t>
+    <rPh sb="9" eb="11">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスク評価方法の選択</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織のグループから次の要因（ビジネスニーズ、情報セキュリティ要件、IT機能とその用途、法的な要件、規制による責任）</t>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヨウト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ホウテキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キセイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セキニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に関する情報を収集し、それに基づいてリスク評価方法を選択します。</t>
+  </si>
+  <si>
+    <t>パブリッククラウドインフラストラクチャの運用方法は既存の環境と異なるため、リスクを受け入れる基準やリスクの許容レベル</t>
+    <rPh sb="20" eb="22">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を識別する基準を定めることが重要です。</t>
+    <rPh sb="1" eb="3">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初にリスクの評価を行い、可能な範囲内で自動化を利用することをお勧めします。 AWSのリスク管理の自動化を利用すると、</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスク管理に必要なリソースの範囲を絞り込むことができます。</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスクの特定</t>
+    <rPh sb="4" eb="6">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての資産を脅威にマッピングして、リスク登録簿を作成してから、虚弱性評価及び影響分析の結果に基づいて、それぞれの</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>トウロクボ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>キョジャクセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS環境に応じた新しいリスクマトリックスを作成することをお勧めします。</t>
+    <rPh sb="3" eb="5">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスク登録簿</t>
+    <rPh sb="3" eb="6">
+      <t>トウロクボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アセットに対する脅威</t>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脅威によって悪用される可能性がある脆弱性</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アクヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脆弱性が悪用された場合の結果</t>
+    <rPh sb="0" eb="3">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アクヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスクの分析と評価</t>
+    <rPh sb="4" eb="6">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスクの分析と評価を行い、ビジネスへの影響、可能性、リスクレベルを試算します。</t>
+    <rPh sb="4" eb="6">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスクへの対処</t>
+    <rPh sb="5" eb="7">
+      <t>タイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスクに対処する方法を選択します。 セキュリティコントロールを適用する、リスクを受け入れる、リスクを回避する、</t>
+    <rPh sb="4" eb="6">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスクを移転するなどの対処方法がある。</t>
+    <rPh sb="4" eb="6">
+      <t>イテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティコントロールフレームワークの選択</t>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マネジメントによる承認の取得</t>
+    <rPh sb="9" eb="11">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらゆるコントールを実装しても、リスクを完全に取り除くことはできない。全ての残留リスクをマネジメントに報告し、</t>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ザンリュウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISMS実装および運用についての承認を得る事をお勧めします。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用宣言書</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>センゲンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択したコントロールと選択理由</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入済みコントロール</t>
+    <rPh sb="0" eb="2">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入予定のコントロール</t>
+    <rPh sb="0" eb="2">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>除外したコントロールと除外理由</t>
+    <rPh sb="0" eb="2">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSアカウント、IAMユーザー、グループ、ロールの管理</t>
+    <rPh sb="26" eb="28">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISMSの設計においては、ユーザーが必要とするリソースのみに限定して、それらのリソースにアクセスするための最低限のアクセス権限を</t>
+    <rPh sb="5" eb="7">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>サイテイゲン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーに割り当てることが重要です。</t>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSアカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMでは、複数のユーザーを作成して各ユーザーに個別のセキュリティ認証情報を割り当て、それらのすべてのユーザーを単一の</t>
+    <rPh sb="6" eb="8">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>タンイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSアカウントで管理することができます。</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMユーザーは、AWSリソースにマネージドコンソールやAPIを通してアクセスする必要がある人、サービス、アプリケーションを表す。</t>
+    <rPh sb="32" eb="33">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベストプラクティスは、AWSアカウントのサービスやリソースにアクセスするユーザーごとに、個別にIAMユーザーを作成することです。</t>
+    <rPh sb="44" eb="46">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSアカウントでリソースへのきめ細かなアクセス権限を作成し、グループを作成してそのアクセス権限を適用し、それらのグループに</t>
+    <rPh sb="17" eb="18">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーを割り当てることができます。</t>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このベストプラクティスに従うと、タスクに必要な最小限のアクセス権限がユーザーに割り当てられます。</t>
+    <rPh sb="12" eb="13">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のAWSアカウントを使用する場合の戦略</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティを一元的に管理</t>
+    <rPh sb="7" eb="10">
+      <t>イチゲンテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境ごとに分離</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独立した部門ごとに分離</t>
+    <rPh sb="0" eb="2">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトごとに管理</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のアカウントについて一括請求関係を設定すると、アカウント別に請求を管理する複雑さを軽減し、スケールメリットを活用する</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケイゲン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ことができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一括請求を使用する場合、アカウント間でリソースや認証情報は共有されません。</t>
+    <rPh sb="0" eb="2">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMユーザーの管理</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2063,7 +3850,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2080,6 +3867,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2108,10 +3903,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2418,7 +4215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A250" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
@@ -3688,4 +5485,854 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H191"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D37" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D38" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D39" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D40" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D41" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D42" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D43" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D44" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C48" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C54" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D58" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D59" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C61" s="3">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D63" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D64" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D65" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D66" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D67" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C69" s="3">
+        <v>3</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D71" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D72" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B74" s="3">
+        <v>3</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C77" s="3">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C78" s="3">
+        <v>3</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C79" s="3">
+        <v>4</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <v>3</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B83" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B84" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B86" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
+        <v>4</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B92" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B93" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B95" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B99" s="3">
+        <v>3</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B101" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C105" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B107" s="3">
+        <v>2</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C109" s="3">
+        <v>1</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C110" s="3">
+        <v>2</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C111" s="3">
+        <v>3</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C112" s="3">
+        <v>4</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C113" s="3">
+        <v>5</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B115" s="3">
+        <v>3</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C117" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C118" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C120" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C121" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C123" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C124" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B126" s="3">
+        <v>4</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C128" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C129" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C131" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G132" s="3">
+        <v>2</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G133" s="3">
+        <v>3</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G134" s="3">
+        <v>4</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B136" s="3">
+        <v>5</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C138" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B140" s="3">
+        <v>6</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C142" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C143" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B145" s="3">
+        <v>7</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B147" s="3">
+        <v>8</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C149" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C150" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B152" s="3">
+        <v>9</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C154" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G154" s="3">
+        <v>1</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G155" s="3">
+        <v>2</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G156" s="3">
+        <v>3</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G157" s="3">
+        <v>4</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A159" s="3">
+        <v>5</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B161" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B162" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B164" s="3">
+        <v>1</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B166" s="3">
+        <v>2</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C168" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C169" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C171" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C173" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C175" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C176" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C177" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D181" s="3">
+        <v>1</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D182" s="3">
+        <v>2</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D183" s="3">
+        <v>3</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D184" s="3">
+        <v>4</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D186" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D187" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D189" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C191" s="3">
+        <v>2</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Aws/SAP/White Paper.xlsx
+++ b/Aws/SAP/White Paper.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="AWS セキュリティのベストプラクティス" sheetId="3" r:id="rId2"/>
+    <sheet name="aws セキュリティのベストプラクティス" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="748">
   <si>
     <t>⼀般的な設計の原則</t>
     <phoneticPr fontId="1"/>
@@ -3842,6 +3842,6902 @@
     <t>IAMユーザーの管理</t>
     <rPh sb="8" eb="10">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMユーザーの管理は、適切なレベルのアクセス権限を持つIAMユーザーのみが実行できるようにする。</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高い権限が与えられたこのIAMユーザーは、AWSの設定を管理したりAWSリソースに直接アクセスしたりする組織内の人、サービス、</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>またはアプリケーションのそれぞれに対して個別にIAMユーザーを作成できます。</t>
+    <rPh sb="17" eb="18">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のエンティティで同じ認証情報を共有する共有ユーザーIDは使用しないことを強くお勧めします。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMグループの管理</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMグループは、職務・部門、または地域単位で作成したり、プロジェクト別に作成したりなど、ジョブを実行するために同様の</t>
+    <rPh sb="9" eb="11">
+      <t>ショクム</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSリソースにアクセスする必要があるIAMユーザーを任意の基準でまとめて作成できる。</t>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれのIAMグループに、１つまたは複数のIAMポリシーを割り当てて、AWSリソースにアクセスするためのアクセス権限を</t>
+    <rPh sb="19" eb="21">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付与できます。 IAMグループに割り当てられたポリシーは、そのグループに属するIAMユーザーにすべて継承されます。</t>
+    <rPh sb="0" eb="2">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMグループは、AWSリソースへのアクセスを管理する強力なツールです。　特定のリソースにアクセスする必要があるユーザーが</t>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人しかいない場合でも、ベストプラクティスとしては、グーループを作成する形になります。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS認証情報の管理</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSアカウントとIAMユーザーはそれぞれ一意のIDであり、固有の長期的な認証情報が設定されます。</t>
+    <rPh sb="21" eb="23">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>チョウキテキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらのIDに関連付けられる認証情報は2種類あり、１つはAWSマネージメントコンソールおよびAWSポータルページへのサインインに</t>
+    <rPh sb="7" eb="10">
+      <t>カンレンヅ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用され、もう１つはプログラムによるAWS APIへのアクセスに使用されます。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2種類のサインイン情報</t>
+    <rPh sb="1" eb="3">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名/パスワード</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多要素認証（MFA)</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID/パスワードに加えて、MFAデバイスからの認証コードが求められる。</t>
+    <rPh sb="9" eb="10">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MFAはユーザーがS3オブジェクトを削除する場合など、AWS環境への不正アクセスを防止したい場合</t>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にも求めることができます。</t>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムからAPIにアクセスする際に使用する認証情報の種類を示します。</t>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスキーは、AWSサービスのAPI呼び出しのデジタル署名に使用される。</t>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスキーは、アクセスIDとシークレットキーで構成され、シークレットキーは、ユーザー側で管理が必要になる。</t>
+    <rPh sb="24" eb="26">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーは、アクティブなアクセスキーのセットを同時に２つまで所有できる。</t>
+    <rPh sb="23" eb="25">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスキーは定期的に更新する方が良い。</t>
+    <rPh sb="7" eb="10">
+      <t>テイキテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API呼び出しに対するMFA</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIもMFAで保護できる。</t>
+    <rPh sb="8" eb="10">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMロールと一時的なセキュリティ認証情報を使用した委任について</t>
+    <rPh sb="7" eb="10">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況によっては、AWSリソースにアクセスできないユーザーやサービスにアクセスを委任する場合があります。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イニン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2上のアプリからAWSリソースへのアクセス</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSリソースへのリクエストをアプリから行うには認証情報が必要になります。</t>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この場合は各EC2インスタンスに認証情報を配布しても実現できるが、長期的な認証情報を各インスタンスに配布すると、</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>チョウキテキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハイフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理が困難になり、セキュリティのリスクとなる可能性があります。</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コンナン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロスアカウントアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発環境を本番環境と分離するなど、リソースへのアクセスを管理するためには、複数のAWSアカウントを持つ必要がある。</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、一方のAWSアカウントのユーザーが、もう一方のAWSアカウントのリソースへのアクセスが必要になる場合がある。</t>
+    <rPh sb="4" eb="6">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両方のAWSアカウントで作業するユーザーにそれぞれの環境のIDを設定することで実現可能だが、複数のアカウントの</t>
+    <rPh sb="0" eb="2">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のユーザーを一人のユーザーに配布して管理すると、ID管理が困難になる。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コンナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDフェデレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LDAP等のID管理をすでに利用している場合、それのユーザーにAWSリソースを使用させる場合がある。</t>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その場合は、当然、それらのユーザーはAWS認証情報が必要になる。</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウゼン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記のユースケースのには、IAMロールと一時的なセキュリティ情報を使用することで対応することができる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMロールを使用するとユーザーまたはサービスが必要とするリソースにアクセスするための一連のアクセス権限を定義することができるが、</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イチレン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このアクセス権限は特定のユーザーやグループに付与するものではない。</t>
+    <rPh sb="6" eb="8">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMユーザー、モバイルアプリやEC2上のアプリ、またはAWSサービスに対してロールを適用できます。　ロールを適用すると</t>
+    <rPh sb="19" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムによるAWSへのリクエストにユーザーまたはアプリが使用できる一時的なセキュリティ情報が返される。</t>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらの一時的なセキュリティ情報は、有効期限の設定が可能で、自動的に更新される。　IAMロール一時的なセキュリティ認証情報を</t>
+    <rPh sb="4" eb="7">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用することで、リソースにアクセスする必要があるエンティティごとに長期的なセキュリティ認証情報やIAMユーザーを常時管理する必要</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>チョウキテキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がなくなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2のIAMロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者は、IAMを使用してロールを作成する。 このロール内で、管理者はポリシーを使用して、EC２インスタンスだけが</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このロールを取得できることを指定し、バケットに対する読み取り専用のアクセス権限を指定する。</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発者はEC2インスタンスを起動し、ロールをそのインスタンスに関連付ける。</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>カンレンヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリを実行すると、EC2インスタンスのインスタンスメタデータから認証情報が取得される。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションは、ロールの認証情報を使用して、読み取り専用のアクセス権限でバケットにアクセスする。</t>
+    <rPh sb="14" eb="16">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロスアカウントアクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMロールを使用して、AWSアカウント内のリソースを別のAWSアカウントのIAMユーザにアクセスできるようにする。</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この事をクロスアカウントアクセスという。</t>
+    <rPh sb="2" eb="3">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロスアカウントアクセスでは、リソースへのアクセスを他のAWSアカウントのユーザーと共有できる。</t>
+    <rPh sb="26" eb="27">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロスアカウントアクセスを設立するには、信頼する側のアカウント（アカウントA)で、信頼される側のアカウント（アカウントB）</t>
+    <rPh sb="13" eb="15">
+      <t>セツリツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に、特定のリソースへのアクセスを許可するIAMポリシーを作成する。</t>
+    <rPh sb="2" eb="4">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これにより、アカウントBで、そのアカウントのIAMユーザーにこのアクセスを委任できるようになります。</t>
+    <rPh sb="37" eb="39">
+      <t>イニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントBのIAMユーザーに、アカウントAから賦与されたアクセス権限の範囲を超えるアクセスを委任することはできません。</t>
+    <rPh sb="24" eb="26">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDフェデレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMロールを使用して、LDAP等のユーザーとAWSリソースの間に認証と認可のプロセスを管理するIDブローカーを作成できる。</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、すべてのユーザーをAWSでIAMユーザーとして作成しなおす必要はない。</t>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業ユーザーがアプリにアクセスする。</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリにIDブローカーの設定を施す。</t>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ホドコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリで、企業側のLDAP等で認証する。</t>
+    <rPh sb="5" eb="7">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリは、一時的なセキュリティ認証情報をリクエストするためにAWS Security Token Service(STS)へのアクセス権限を</t>
+    <rPh sb="5" eb="8">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持っている。</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリは、リダイレクト等でWebブラウザを開く。</t>
+    <rPh sb="11" eb="12">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーは、一時的な認証情報によりAWS APIにアクセスする。</t>
+    <rPh sb="6" eb="9">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2インスタンスへのOSレベルのアクセスの管理</t>
+    <rPh sb="22" eb="24">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECインスタンス上のOSにアクセスするには、異なる認証情報のセットが必要になる。</t>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>責任共有モデルではEC2のOSの認証情報は顧客に管理責任があるが、AWSはOSの初期アクセスのブーストトラップを補助します。</t>
+    <rPh sb="0" eb="2">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ホジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2インスタンスにSSHなどでアクセスするには、OSレベルの認証に成功している必要がある。</t>
+    <rPh sb="31" eb="33">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2インスタンスへの認証を有効にするには、AWSではEC2キーペアーと呼ばれる非対称キーペアー（RSAキー）が提供される。</t>
+    <rPh sb="11" eb="13">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ヒタイショウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2 キーペアーは、IAMユーザーやAWSアカウントの認証情報と関係がありません。EC2キーペアーは、特定のEC2インスタンスの</t>
+    <rPh sb="28" eb="30">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセスのみを制御する。</t>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーペアの作成は信頼できる安全な環境で行い、キーペアーのパブリックキーのみAWSで管理し、プライベートキーはユーザーが</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>またキーペアーの作成は、AWSで行うこともできます。</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全に管理する必要があります。　なくした場合はキーペアーの再作成が必要になります。</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>サイサクセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの保護</t>
+    <rPh sb="4" eb="6">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSプラットフォームでの保管・転送時のデータの保護について説明します。</t>
+    <rPh sb="13" eb="15">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースへのアクセスの承認</t>
+    <rPh sb="11" eb="13">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーまたはIAMロールが承認されると、承認されたリソースへのアクセスが許可されます。</t>
+    <rPh sb="14" eb="16">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースの承認には、リソースの制御をユーザーが行えるようにするか、あるいはポリシーの設定を各ユーザーの設定よりも</t>
+    <rPh sb="5" eb="7">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先して適用するかに応じて、リソースポリシーまたは機能ポリシーのどちらかを使用します。</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースポリシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースポリシーは、ユーザーがリソースを作成し、それらのリソースへのアクセスを他のユーザーに許可する場合に</t>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適したポリシーです。 このモデルでは、ポリシーをリソースに直接アタッチし、そのリソースを使用できるユーザーと実行できる</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作を定義します。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースの制御はユーザーが行います。</t>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この方法により、IAMユーザーにリソースへの明示的なアクセスを提供できます。</t>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルートAWSアカウントは、そのアカウントで作成された全てのリソースの所有者となり、常にリソースポリシーを管理するための</t>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明示的なアクセスをユーザーに付与することができる。</t>
+    <rPh sb="0" eb="3">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能ポリシー</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能ポリシー（ユーザーベースアクセス権限）は、企業全体のアクセスポリシーを適用する場合によく使用されます。</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能ポリシーは、IAMユーザーに直接割り当てられる場合と、IAMグループを使用して間接的に割り当てる場合がある。</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>カンセツテキ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、実行時に適用されるロールに割り当てることもできます。</t>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能ポリシーでは、ユーザーによる実行を許可または禁止する機能（アクション）を定義します。</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・IAMポリシーは、特定のリソースのIPアドレス範囲、または特定の日や時間など、何らかの条件に基づいてアクセスを制限する場合に</t>
+    <rPh sb="10" eb="12">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用できます。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・リソースポリシーと機能ポリシーは、実際は組み合わされて使用される。 各ユーザーに実際に適用されるアクセス権限は、リソースポリシーと</t>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直接またはグループメンバーシップを通じて付与された機能ポリシーのアクセス権限を組み合わせたものになります。</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラウドでの暗号化キーの保管と管理</t>
+    <rPh sb="6" eb="9">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化を使用するセキュリティ対策にはキーは必須です。</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存の暗号化キーをクラウドで管理できますが、サーバー側―の暗号化とAWSのキー管理および保管機能を利用することもできる。</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管時のデータ保護</t>
+    <rPh sb="0" eb="2">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSで保管時のデータの保護を実装する際の注意事項を示します。</t>
+    <rPh sb="4" eb="6">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偶発的な情報の開示</t>
+    <rPh sb="0" eb="3">
+      <t>グウハツテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを機密情報として扱い、アクセスできるユーザーを制限する。</t>
+    <rPh sb="4" eb="6">
+      <t>キミツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBS、RDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSへのアクセス権限を使用してリソースへのアクセスを管理する。</t>
+    <rPh sb="9" eb="11">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化を使用して、機密データを保護する。</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キミツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの不整合</t>
+    <rPh sb="4" eb="7">
+      <t>フセイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースアクセス権限を使用して、データを変更できるユーザーを制限します。</t>
+    <rPh sb="8" eb="10">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この場合でも、権限があるユーザーが誤ってデータを削除する可能性が残るため、最小限の権限だけを付与するという原則に従うことが</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要になる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのためデータ整合性チェックを実行して、データの整合性が失われていないかというチェックも必要になる。</t>
+    <rPh sb="7" eb="10">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウシナ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの不整合が見つかった場合は、バックアップまたはオブジェクトの以前のバージョンからデータを復元する。</t>
+    <rPh sb="4" eb="7">
+      <t>フセイゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>フクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過失による削除</t>
+    <rPh sb="0" eb="2">
+      <t>カシツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しいアクセス権限・最少特権のルールは最善の防御策となる。</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トッケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サイゼン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3ではオブジェクトの削除にMFA Deleteを使用することによって、さらに制限できる。</t>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム、インフラストラクチャ、ハードウェア、ソフトウェアの可用性</t>
+    <rPh sb="30" eb="33">
+      <t>カヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム障害や自然障害が発生した場合は、バックアップやレプリケーションからデータを復元します。</t>
+    <rPh sb="4" eb="6">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>フクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3やDyanamo DBなどの一部のサービスは複数のアベイラビリティゾーンで自動的にデータのレプリケーションが</t>
+    <rPh sb="16" eb="18">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ジドウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行できる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他のサービスでは、レプリケーションやバックアップを設定する必要がある。</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3でのデータ保管時のデータの保護</t>
+    <rPh sb="7" eb="9">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3には、保管時のデータを保護するための数多くのセキュリティ機能が用意されている。</t>
+    <rPh sb="5" eb="7">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カズオオ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス権限</t>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バケット、オブジェクトのレベルでのアクセス制限をIAMポリシーとともに使用し、不正アクセスを防止したり、情報開示したり</t>
+    <rPh sb="21" eb="23">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ボウシ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの不整合や削除を防止したりできます。</t>
+    <rPh sb="4" eb="7">
+      <t>フセイゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ボウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3ではオブジェクトのバージョニングがサポートされている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョニングはデフォルトでは無効になっている。</t>
+    <rPh sb="15" eb="17">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レプリケーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3では、それぞれのリージョンにある全てのアベイラビリティゾーンで、各オブジェクトがレプリケートされる。</t>
+    <rPh sb="18" eb="19">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レプリケーションでは可用性は提供できるが、データの不整合には対応できない。</t>
+    <rPh sb="10" eb="13">
+      <t>カヨウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>フセイゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3では標準の冗長化オプションに加えて、低冗長化オプションが用意されている。 これらは耐久性と価格が異なる。</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>タイキュウセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3ではバックアップの代わりに、レプリケーションとバージョニングが提供されている。</t>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>またアプリを用いて、S3上のデータを他のAWSリージョンやオンプレミス環境にバックアップすることもできる。</t>
+    <rPh sb="6" eb="7">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化　サーバー側</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3ではサーバー側の暗号化をサポートしている。</t>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー側の暗号化はエンドユーザーにとって透過的です。</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>トウカテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSによって、各オブジェクトについて一意の暗号化キーが生成され、オブジェクトが暗号化される。</t>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に暗号化キー自体も、安全な場所に保存されているマスターキーによって暗号化される。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターキーは定期的にローテーションされている。</t>
+    <rPh sb="7" eb="10">
+      <t>テイキテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化　クライアント側</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント側での暗号化は、ユーザーが独自の暗号化キーを作成して管理する必要がある。</t>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリでS3に保存前にデータを暗号化し、S3から受信したデータを復号化する必要がある。</t>
+    <rPh sb="7" eb="9">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>フクゴウカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSが提供するJava SDKにはクライアント側での暗号化機能が含まれている。</t>
+    <rPh sb="4" eb="6">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBSでの保管時のデータ保護</t>
+    <rPh sb="5" eb="7">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBSは、AWSの抽象ブロックストレージになる。</t>
+    <rPh sb="9" eb="11">
+      <t>チュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBSボリュームは、新品のハードディスクのように、未フォーマットのrawモードで提供される。 そのため、</t>
+    <rPh sb="10" eb="12">
+      <t>シンピン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがEBSボリュームの分割、RAIDの設定、選択したファイルシステムでのパーティションのフォーマットを行い、</t>
+    <rPh sb="14" eb="16">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを保護する必要がある。</t>
+    <rPh sb="4" eb="6">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBSボリュームはEC2にアタッチすることができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レプリケーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBSボリュームにはファイルとして保存され、AWSによって冗長化のために、EBSボリュームの２つのコピーが作成される。</t>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、両方のコピーは同じアベイラビリティゾーンに作成されるため、EBSのレプリケーションはハードウェア障害には対応</t>
+    <rPh sb="4" eb="6">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できますが、長時間の停電や災害対策を目的とした可用性ツールとしては適していません。</t>
+    <rPh sb="6" eb="9">
+      <t>チョウジカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイデン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>カヨウセイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションレベルでデータをレプリケートするか、バックアップを作成することをお勧めします。</t>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBSは、特定の時点でEBSボリュームに保存されているデータをキャプチャしたスナップショットを提供します。</t>
+    <rPh sb="5" eb="7">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データに不整合が発生した場合は、スナップショットから復元できます。</t>
+    <rPh sb="4" eb="7">
+      <t>フセイゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>フクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBSスナップショットは、AWSオブジェクトであり、IAMユーザー、グループ、ロールに対してこのオブジェクトへの</t>
+    <rPh sb="43" eb="44">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス権限を割り当てることができる。</t>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSでWindows Serverを使用している場合は、暗号化ファイルシステム（EFS）を実装することによって、機密データの保護を強化できる。</t>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キミツ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EFSはNTFSファイルシステムの拡張機能であり、ファイルやフォルダーの透過的な暗号化を実現できる。</t>
+    <rPh sb="17" eb="19">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>トウカテキ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDSでの保管時のデータの保護</t>
+    <rPh sb="5" eb="7">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDSは、EC2と同様の安全なインフラストラクチャを活用する。</t>
+    <rPh sb="9" eb="11">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常、RDSサービスは追加の保護機能なしで使用していただけれるが、コンプライアンスやその他の目的で、保管時のデータの暗号化や</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの整合性認証が必要な場合は、アプリケーションレイヤで保護を追加することや、SQLの暗号化関数を使用して、プラットフォーム</t>
+    <rPh sb="4" eb="7">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイヤでの保護の追加を行える。</t>
+    <rPh sb="5" eb="7">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのリージョンで、RDSは透過的なデータ暗号化とネイティブネットワーク暗号化をサポートしている。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>トウカテキ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon Glacierでの保管時のデータの保護</t>
+    <rPh sb="16" eb="18">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon Glacierに保存されるデータは、サーバー側で暗号化を使用して保護される。</t>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSでは、Glacierの各アーカイブについて個別に一意の暗号化キーを生成し、AES-256を使用してアーカイブを暗号化する。</t>
+    <rPh sb="14" eb="15">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また暗号化キー自体もマスターキーにより暗号化される。</t>
+    <rPh sb="2" eb="5">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また情報の保護をさらに強化したい場合は、データを暗号化してからGlacierにアップロードできる</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon EMRでの保管時のデータの保護</t>
+    <rPh sb="12" eb="14">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMRは、マネージド型のサービスになる。　AWSでは、EMRを実行する為に必要なAMIが提供される。カスタムAMIや独自の</t>
+    <rPh sb="10" eb="11">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ドクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EBSボリュームを使用することはできない。</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトでは、Amazon EMRインスタンスは保管時のデータを暗号化しません。</t>
+    <rPh sb="25" eb="27">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMRクラスタでは、S3とDynamoDBのいずれかを永続的なデータストアとして使用することがよくある。</t>
+    <rPh sb="27" eb="29">
+      <t>エイゾク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMRクラスタを起動すると、必要なデータが永続的なストアからHDFSにコピーされる。また直接S3やDynamoDBからデータを</t>
+    <rPh sb="8" eb="10">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>エイゾクテキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>チョクセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用できる。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データとメディアの安全な廃棄</t>
+    <rPh sb="9" eb="11">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラウドと従来のオンプレミス環境では、データを破棄する方法が異なる。</t>
+    <rPh sb="5" eb="7">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSにクラウド内のデータの削除を依頼した場合は、AWSは基になる物理メディアは廃棄しません。 代わりに、ストレージブロックが</t>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハイキ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未割当としてマークされます。 AWSは安全なメカリズムを使って、ブロックを他に再度割り当てます。</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ワリアテ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝送中のデータの保護</t>
+    <rPh sb="0" eb="3">
+      <t>デンソウチュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラウドアプリケーションは、通常、インターネットなどのパブリック環境で通信するため、クラウドでアプリケーションを実行する場合は、</t>
+    <rPh sb="14" eb="16">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝送中のデータを保護することが重要になります。</t>
+    <rPh sb="0" eb="3">
+      <t>デンソウチュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはクライアントとサーバーだけでなく、サーバー間の通信も含まれます。</t>
+    <rPh sb="24" eb="25">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇懸念事項</t>
+    <rPh sb="1" eb="3">
+      <t>ケネン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偶発的な情報の開示</t>
+    <rPh sb="0" eb="3">
+      <t>グウハツテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機密データへのアクセスは制限する必要があります。 データがパブリッククラウドを経由する場合は、データが開示されない</t>
+    <rPh sb="0" eb="2">
+      <t>キミツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ように暗号化によって保護する必要があります。</t>
+    <rPh sb="3" eb="6">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPSec、SSL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの不整合</t>
+    <rPh sb="4" eb="7">
+      <t>フセイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データが機密データであるかどうかにかかわらず、意図的または偶発的な変更によってデータの整合性が</t>
+    <rPh sb="4" eb="6">
+      <t>キミツ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>イトテキ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>グウハツテキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>損なわれないことを確認できます。</t>
+    <rPh sb="0" eb="1">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピアアイデンティティの漏洩・なりすまし・中間者</t>
+    <rPh sb="11" eb="13">
+      <t>ロウエイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化とデータ整合性認証は通信チャネルを保護するために重要です。接続のリモートエンドのIDを認証することも重要です。</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSのサービスでは、伝送中のデータを保護するために、IPSecとSSL/TLSの両方のサポートを提供しています。　IPSecは、通常、</t>
+    <rPh sb="11" eb="14">
+      <t>デンソウチュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワークインフラストラクチャで、IPプロトコルスタックを拡張するプロトコルです。</t>
+    <rPh sb="30" eb="32">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これにより、上位レイヤーのアプリケーションは、変更しなくても安全に通信することができます。　一方、SSL/TLSは、セッションレイヤで</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イッポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">動作します。 </t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションの管理とAWSパブリッククラウドサービスへの管理アクセス</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS上で動作するアプリにアクセスする場合は、インターネット経由で接続するが、多くの場合、セキュリティポリシーでは、</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネットは安全ではない通信メディアとみなされ、伝送中のアプリケーションデータは保護が必要になる。</t>
+    <rPh sb="8" eb="10">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>デンソウチュウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇パブリッククラウドサービスにアクセスするときに伝送中のデータを保護するためのアプローチ</t>
+    <rPh sb="24" eb="27">
+      <t>デンソウチュウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP/HTTPSトラフィック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTPSのオフロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDPのトラフィック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトではRDP接続は基になるSSL/TLS接続を確立する。</t>
+    <rPh sb="10" eb="12">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSHトラフィック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSLと同様に、クライアントとサーバーの間に安全な通信チャネルを確立する。</t>
+    <rPh sb="4" eb="6">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBトラフィック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSサービスを管理する際の伝送中のデータの保護</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>デンソウチュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSマネージドコンソールでは、AWSサービス管理トラフィックを保護するために、クライアントブラウザとコンソールサービス</t>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンドポイントの間でSSL/TLSを使用する。</t>
+    <rPh sb="8" eb="9">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3に伝送中のデータの保護</t>
+    <rPh sb="3" eb="6">
+      <t>デンソウチュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3へのアクセスはHTTPSを通して行われます。</t>
+    <rPh sb="15" eb="16">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDSに伝送中のデータの保護</t>
+    <rPh sb="4" eb="7">
+      <t>デンソウチュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2からRDS接続する場合はAWS内のため、AWSネットワークのセキュリティを利用できるが、インターネットから接続する場合は、</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSL/TLSを利用して、接続を保護する必要がある。</t>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSL/TLS は、現在、Amazon RDS MySQL インスタンスおよび Microsoft SQLインスタンスへの接続でサポートされています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どちらの製品についても、アマゾンウェブサービスは MySQL または Microsoft SQL リスナーに関連付けられた単一の自己署名証明書を</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提供します。この自己署名証明書をダウンロードし、信頼された証明書として指定できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DynamoDBに伝送中のデータの保護</t>
+    <rPh sb="9" eb="12">
+      <t>デンソウチュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2からDynamoDBに接続する場合はAWS内のため、AWSネットワークのセキュリティを利用できるが、インターネットから接続する場合は、</t>
+    <rPh sb="14" eb="16">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Http over SSL/TLSを利用して、接続を保護する必要がある。</t>
+    <rPh sb="18" eb="20">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMRに伝送中のデータの保護</t>
+    <rPh sb="4" eb="7">
+      <t>デンソウチュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMR には多くのアプリケーション通信パスが含まれており、それぞれの通信パスについて、伝送中のデータの保護メカニズムが個別に必要です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSとアプリケーションのセキュリティによる保護</t>
+    <rPh sb="21" eb="23">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2は、様々なOSのインスタンスを、事前にロードされたカスタムアプリとともに起動できます。</t>
+    <rPh sb="5" eb="7">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSやアプリのビルド環境を標準化し、単一の安全なビルドリポジトリでOSやアプリのセキュリティを一元管理できる。</t>
+    <rPh sb="10" eb="12">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ヒョウジュンカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イチゲン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMIの推奨事項</t>
+    <rPh sb="4" eb="6">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルートAPIアクセスキーとシークレットキーを無効にする。</t>
+    <rPh sb="22" eb="24">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティグループを使用し、制限された範囲からのインスタンへのアクセスを制限する。</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーマシンの.pemファイルをパスワードで保護</t>
+    <rPh sb="23" eb="25">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不要なユーザーは、インスタンス上の承認されたキーファイルから削除する</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証情報（DB、アクセスキー）を更新する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IAMユーザーのアクセスアドバイザー、またはIAMユーザーが前回使用したアクセスキーを使用して、</t>
+    <rPh sb="30" eb="32">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最小特権チェックを定期的に実行する。</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トッケン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>テイキテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拠点ホストを使用して、制御と可視性を強化する。</t>
+    <rPh sb="0" eb="2">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>カシセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタムAMIの作成</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織の特定の要件を満たす独自のAMIを作成し、内部（プライベート）または外部（パブリック）で使用できるように公開します。</t>
+    <rPh sb="0" eb="2">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMIの発行者は、マシンイメージの初期のセキュリティ体制に対する責任を負います。</t>
+    <rPh sb="4" eb="7">
+      <t>ハッコウシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMIに対して適用するセキュリティコントロールは特定の時点で有効であり、動的なものではありません。</t>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ドウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライベートAMIはお客様のビジネスニーズに合わせてどのようにでも設定でき、AWSの適正規約の違反にはなりません。</t>
+    <rPh sb="11" eb="13">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、AMIから起動するユーザーがセキュリティの専門家ではない場合があるため、一定の最小限のセキュリティ標準を満たしておくことを</t>
+    <rPh sb="9" eb="11">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>センモンカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お勧めします。</t>
+    <rPh sb="1" eb="2">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMIを公開する前に、公開するソフトウェアが関連するセキュリティパッチを適用した最新の状態であることを確認し、以下に示されている</t>
+    <rPh sb="4" eb="6">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリーンアップとセキュリティ強化のタスクを実行します。</t>
+    <rPh sb="14" eb="16">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全でないアプリケーションの無効化</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワーク上でクリアテキストでユーザーを認証するサービスやプロトコル、およびその他の安全でないサービスやプロトコルを</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無効にする。</t>
+    <rPh sb="0" eb="2">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開範囲の最小化</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サイショウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動時に必要不可欠でないネットワークサービスを無効にする。　SSH/RDPや必要不可欠のアプリのみ開始する。</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>フカケツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>フカケツ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証情報の保護</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてのAWSの認証情報をディスクや設定ファイルから安全に削除する。</t>
+    <rPh sb="8" eb="10">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意のサードパーティの認証情報をディスクや設定ファイルから安全に削除する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての追加の証明書やキーマテリアルをシステムから安全に削除する。</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストールされているソフトのデフォルトの内部アカウントやパスワードを使用していないことを確認する。</t>
+    <rPh sb="21" eb="23">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良好なガバナンスの使用</t>
+    <rPh sb="0" eb="2">
+      <t>リョウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムがAmazon Web　Serviceの適正利用規約に違反しないことを確認する。</t>
+    <rPh sb="24" eb="26">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イハン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加のOS固有のクリーンアップタスクを示す。</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全なサービス</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パブリックキー認証のみを許可するようにsshdを設定する。</t>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス作成時に一意のSSHホストキーを生成する。</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてのユーザーアカウント用のパスワードを、ログイン時に使用できないようにし、デフォルトのパスワードを</t>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持たないようにするために、削除して無効にする。</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてのユーザーのSSHパブリックキーとプライベートキーのペアを安全に削除する。</t>
+    <rPh sb="32" eb="34">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの保護</t>
+    <rPh sb="4" eb="6">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機密データを含んでいるすべてのシェル履歴およびシステムログファイルを安全に削除する。</t>
+    <rPh sb="0" eb="2">
+      <t>キミツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows AMIの保護</t>
+    <rPh sb="12" eb="14">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスの作成時に、有効なすべてのユーザーアカウントに対してランダムに作成されたパスワードが設定される</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようにする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2 Configサービスを利用して、ブート時に管理者アカウントについてはこれを実行できるようになる。</t>
+    <rPh sb="15" eb="17">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲストアカウントが無効であることを確認する。</t>
+    <rPh sb="9" eb="11">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMIがWindowsドメインの一部でないことを確認する。</t>
+    <rPh sb="16" eb="18">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windowsのイベントログをすべて削除する。</t>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開範囲の最小</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル共有、印刷スプーラー、RPCなど、必須ではないのにデフォルトで有効になっているWindowsサービスを</t>
+    <rPh sb="4" eb="6">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効にしない。</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブートストラッピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化したAMIをインスタンス化した後も、ブートストラップアプリケーションを使用してセキュリティコントロールを修正し、更新することができる。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検証対象となるブートストラップアクションを以下にあげる。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティソフトウェア更新プログラムで、AMIのパッチレベルを超えた最新のパッチ、サービスパック、重要な更新プログラムを</t>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストールします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期アプリケーションパッチで、AMIでキャプチャされた現在のアプリレベルのビルドを超えたアプリケーションの更新プログラムを</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストールします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンテキスト依存データと設定により、本番用、テスト用、DMZ/インターネット用など、起動環境に固有の設定をインスタンスに</t>
+    <rPh sb="6" eb="8">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ホンバンヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用できます。</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモートセキュリティモニタリングシステムと管理システムにインスタンスを登録します。</t>
+    <rPh sb="21" eb="23">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッチの管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMIおよびライブインスタンスのパッチ管理は、ユーザーの責任になる。　パッチ管理を制度として手順を整備する必要がある。</t>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セイビ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいセキュリティ上の脆弱性を特定しても、その脆弱性のリスクをランク付けするプロセスを導入します。</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低でも、最も重大で最もリスクが高い脆弱性は「高」とランク付けします。</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュウダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パブリックAMIのセキュリティ管理</t>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パブリックに共有する場合は、AMIに重要な認証情報を残さないように注意します。</t>
+    <rPh sb="6" eb="8">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルウェアからのシステムの保護</t>
+    <rPh sb="13" eb="15">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従来の脅威から従来のインフラストラクチャを保護するのと同様に、クラウドのシステムも保護します。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個々のインスタンスにマルウェアが感染した場合と、クラウドシステム全体に感染した場合の影響を理解することが大切です。</t>
+    <rPh sb="0" eb="2">
+      <t>ココ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>タイセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザがLinux/Windows上でプログラムを実行すると、そのプログラムはユーザー権限を入手します。</t>
+    <rPh sb="17" eb="18">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードを起動したユーザーの権限でアクションが実行されるので、ユーザーは信頼できるコードだけを実行する必要がある。</t>
+    <rPh sb="4" eb="6">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼できないコードをシステムで実行すると、そのシステムはもはや自分のシステムではなく、他人のシステムになる可能性があります。</t>
+    <rPh sb="0" eb="2">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感染したインスタンスがシングルサインオン環境の一部である場合、またはインスタンス間でのアクセスについて暗黙的な信頼モデルが</t>
+    <rPh sb="0" eb="2">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>アンモクテキ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シンライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在している場合、感染は個々のインスタンスを超えて、システム全体に急速に広がります。</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ココ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キュウソク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その結果、会社の評判が下がったり、AWS使用量の課金が発生したりする。</t>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カキン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客がマルウェアの脅威を管理する必要がある。</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇マルウェア対策</t>
+    <rPh sb="6" eb="8">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼できないAMI</t>
+    <rPh sb="0" eb="2">
+      <t>シンライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼できないAMIは使用しない。　また信頼できるAMIを利用して、カスタムAMIを作成する場合も、</t>
+    <rPh sb="0" eb="2">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼できるソフトウェア等のみを使用するようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼できないソフト</t>
+    <rPh sb="0" eb="2">
+      <t>シンライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼できるソフトウェアのみをインストールするようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>シンライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オープンソフトも信頼できるソフトウェアに成り得るが、自前で実行可能ファイルをコンパイルできる必要がある。</t>
+    <rPh sb="8" eb="10">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジマエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さらにソースコードをレビューして悪意がないことを確認することを進める。</t>
+    <rPh sb="16" eb="18">
+      <t>アクイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼できるソフトは、通常、コード署名用の証明書を利用して、ソフトに署名するかなどで、ソフトの健全性を保証する。</t>
+    <rPh sb="0" eb="2">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショメイ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ケンゼンセイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼できないソフトウェアリポジトリ</t>
+    <rPh sb="0" eb="2">
+      <t>シンライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信頼できる場所から信頼できるソフトをダウンロードする。</t>
+    <rPh sb="0" eb="2">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーが信頼できるソフトウェアを利用できるように、独自の内部ソフトウェアリポジトリをセットアップすることを</t>
+    <rPh sb="5" eb="7">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お勧めします。インターネットなどの様々な場所からソフトウェアを入手して、インストールしないようにユーザーに</t>
+    <rPh sb="1" eb="2">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教育する必要がある。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最小限の原則</t>
+    <rPh sb="0" eb="3">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーに付与する権限は、ユーザーがタスクを実行するのに必要な最小限の権限とします。</t>
+    <rPh sb="5" eb="7">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>サイショウゲン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチ適用</t>
+    <rPh sb="3" eb="5">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部向けシステムと内部向けシステムに最新のセキュリティレベルのパッチを適用します。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワームは、通常、パッチが適用されていないシステムを介して広がる。</t>
+    <rPh sb="5" eb="7">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボットネット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボットネットとは、攻撃者がリモートでコントロールできる感染したホストのネットワークです。</t>
+    <rPh sb="9" eb="12">
+      <t>コウゲキシャ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感染したシステムを利用して、攻撃者は大量のメールを送信できる。</t>
+    <rPh sb="0" eb="2">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コウゲキシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSではSMTPオープンリレーは避ける。</t>
+    <rPh sb="17" eb="18">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィルス/スパム対策ソフトウェア</t>
+    <rPh sb="8" eb="10">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホスト方式のIDSソフト</t>
+    <rPh sb="3" eb="5">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホスト方式のIDSソフトウェアを利用して、重要なファイルが不正に更新されていないかチェックすることができる。</t>
+    <rPh sb="3" eb="5">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスが感染した場合、ウィルス対策ソフトが感染を検出して除去できることがある。</t>
+    <rPh sb="7" eb="9">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その場合は、最も広く安全で推奨されている手法を使用する。　その手法は、システムデータを一旦バックアップし、システム・プラットフォーム・</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イッタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリの実行可能ファイルを全て再インストールし、システムデータをバックアップからリストアする事です。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>侵害と明確行為の軽減</t>
+    <rPh sb="0" eb="2">
+      <t>シンガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSは顧客と協力して、AWSリソースからの悪意のある疑わしい活動を検出して対処をします。</t>
+    <rPh sb="4" eb="6">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>アクイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウタガ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>タイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSは以下のメカニズムを使用して、顧客のリソースから迷惑行為を検出する。</t>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS内部のイベントモニタ</t>
+    <rPh sb="3" eb="5">
+      <t>ナイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSネットワーク空間に対するセキュリティインテリジェンス</t>
+    <rPh sb="9" eb="11">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSリソースに対するインターネット迷惑行為に関する苦情</t>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>クジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSの迷惑行為対応チームは、AWSで実行されている迷惑行為を検出すると、積極的にモニターし、シャットダウンします。</t>
+    <rPh sb="4" eb="6">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただ迷惑行為の苦情の大多数は、AWSで正当な業務を実行されているお客様に対するものが多い。</t>
+    <rPh sb="2" eb="4">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ダイタスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイトウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>侵害されたリソース</t>
+    <rPh sb="0" eb="2">
+      <t>シンガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意図しない迷惑行為</t>
+    <rPh sb="0" eb="2">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活発なクローラーなど。</t>
+    <rPh sb="0" eb="2">
+      <t>カッパツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二次的な迷惑行為</t>
+    <rPh sb="0" eb="3">
+      <t>ニジテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンドユーザーによる迷惑行為</t>
+    <rPh sb="10" eb="12">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間違った苦情</t>
+    <rPh sb="0" eb="2">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSは迷惑行為の撲滅に注力します。　またお客様もAWSから迷惑行為の警告を受け取った場合は、お客様で調査する必要があります。</t>
+    <rPh sb="4" eb="6">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ボクメツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応が遅れると、被害が拡大し、お客様の評判低下へ、お客様の業務への被害の拡大などにつながります。　また法的責任を負う場合も</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒガイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウバン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒガイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ホウテキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セキニン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSリソースを使用した迷惑行為は、AWSの適用利用規約に違反し、AWSアカウントの使用停止されます。</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イハン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタネットコミュニティによって、正常と評価されるサービスを維持することは、お客様の責任になります。</t>
+    <rPh sb="17" eb="19">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セキニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報告された迷惑行為にお客様が対応できない場合は、AWSアカウントの利用を停止する場合があります。</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その結果、AWSプラットフォームとインターネットコミュニティの健全性を守ります。</t>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ケンゼンセイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>マモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSからの迷惑行為の警告を無視しない。</t>
+    <rPh sb="6" eb="8">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSは、顧客と協力して、迷惑行為に対応します。　AWSアカウントの利用停止は最終手段です。</t>
+    <rPh sb="5" eb="7">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メイワク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティのベストプラクティスに従う。</t>
+    <rPh sb="17" eb="18">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新パッチの適用、ファイアウォールまたはEC2セキュリティグループによるネットワークトラフィックの制限、ユーザーには最小のアクセス権限</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>など、シンプルな防御慣行を一貫して採用してください。</t>
+    <rPh sb="8" eb="10">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>侵害を軽減する</t>
+    <rPh sb="0" eb="2">
+      <t>シンガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・侵害されたEC2やAWSリソースは、シャットダウンし、完全にリビルドして安全な状態に戻してください。</t>
+    <rPh sb="1" eb="3">
+      <t>シンガイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・根本原因を探るには、侵害されたインスタンスに対するフォレンジック分析が必要になる場合がある。</t>
+    <rPh sb="1" eb="3">
+      <t>コンポン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サグ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンガイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSは、インスタンスやその他のリソース内のプライベート情報にはアクセスできない。そのため、アカウントの乗っ取りのような</t>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲストOSやアプリのセキュリティ侵害は検出できない。またプライベート情報（アクセスログ、IPトラフィックログなど）はお客様が</t>
+    <rPh sb="16" eb="18">
+      <t>シンガイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キャクサマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツール等で保存していなければ、AWSは過去にさかのぼってそのような情報を提供することはできない。</t>
+    <rPh sb="3" eb="4">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非常に詳細なインシデント調査とリスク緩和の作業はお客様の責任になる。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セキニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ用の連絡Eメールアドレスを設定する。</t>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他のアプリセキュリティ慣行の採用</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいAMIを作成する前、新しいアプリをデプロイする前は、パスワード、セキュリティ設定などベンダー指定のデフォルト値を見直す。</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不要なユーザーアカウントを無効または削除する。</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EC2インスタンスに導入シュル主要機能は１つだけにし、異なるセキュリティレベルを必要とする機能は、他のEC2インスタンスに導入する。</t>
+    <rPh sb="10" eb="12">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムが機能するために必要なサービスのみを起動する。</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリプト、ドライバー、フィーチャー、サブシステム、EBSボリュームなどの不要な機能と不要なウェブサーバーは全て無効にするか削除する。</t>
+    <rPh sb="37" eb="39">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どの組織でもセキュリティガバナンスは重要ですが、セキュリティポリシーの適用がベストプラクティスです。　可能な限り、セキュリティポリシーと</t>
+    <rPh sb="2" eb="4">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガイドラインを尊守するようにします。</t>
+    <rPh sb="7" eb="8">
+      <t>ミコト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者がシステムとアプリケーションにアクセスする場合は、強力な暗号化のメカニズムを使ってコンソール以外の管理者アクセスを暗号化する。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフラストラクチャの保護</t>
+    <rPh sb="11" eb="13">
+      <t>ホゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCの使用</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCを使用すると、AWSパブリッククラウド内にVPCを構築できる。</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成したVPCは顧客が割り当てたIPアドレス空間を使用する。　VPCではプライベートIPアドレスを使用して、インターネットと直接</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>チョクセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーティングできないプライベートクラウドと関連ネットワークをクラウドに構築できる。</t>
+    <rPh sb="21" eb="23">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCでは、プライベートクラウドを他の顧客と分離できるだけでなく、インターネットからOSSレイヤ３（ネットワーク層のIPルーティング）を</t>
+    <rPh sb="17" eb="18">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分離することもできる。</t>
+    <rPh sb="0" eb="2">
+      <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCでアプリケーションを保護するオプションを以下に示す。</t>
+    <rPh sb="13" eb="15">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネットのみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCはオンプレミスまたはそれ以外のインフラストラクチャのどれにも接続されていません。</t>
+    <rPh sb="15" eb="17">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンプレミスまたはそれ以外に追加インフラストラクチャが存在する場合も存在しない場合もあります。</t>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネットからの接続を許可する必要がある場合は、インバウンドアクセスを必要とするVPCインスタンスのみにElastic IPアドレスを</t>
+    <rPh sb="10" eb="12">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割り当てることで、インバウンドアクセスを許可することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティグループまたはNACLを使用することで、特定のポートと送信元IPアドレスの範囲のみにインバウンド接続を制限することもできる。</t>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ソウシンモト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネットからのインバウンドトラフィックの負荷を分散できる場合、EIPは必要ありません。</t>
+    <rPh sb="23" eb="25">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスはELBの背後に配置されます。</t>
+    <rPh sb="11" eb="13">
+      <t>ハイゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネットに対するアウトバウンドアクセスの場合（ソフトウェアの取得、S3などのAWSパブリックサービスのデータにアクセスする場合）、</t>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NATインスタンスを使用して送信接続のマスカレード機能を実現できます。　EIPは不要です。</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネット経由のIPSec</t>
+    <rPh sb="7" eb="9">
+      <t>ケイユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSにはVPC向けに業界標準の障害に強いIPSecターミネーションインフラストラクチャが用意されている。</t>
+    <rPh sb="8" eb="9">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ギョウカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お客様は、オンプレミスまたは他のVPNインフラストラクチャからAWSのVPNへのIPSecトンネルを確立できます。</t>
+    <rPh sb="1" eb="3">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IPSecトンネルは、AWSとお客様のインフラストラクチャエンドポイントとの間に確立される。 </t>
+    <rPh sb="16" eb="18">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPSecを使わないAWS Direct Connect</t>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Direct Connectを使用すると、専用リンクを経由したAWSとのプライベートピアリングにより、インターネットを使用しないで、</t>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCと相互接続を確立できます。</t>
+    <rPh sb="4" eb="6">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この場合、データ保護要件に応じて、IPSecを使用しないこともできる。</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPSecを使用したAWS Direct Connect</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイブリッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これらを組み合わせて使用することもできる。</t>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティゾーニングとネットワークセグメンテーションの使用</t>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ要件が異なると、必要なセキュリティ管理も異なる。インフラストラクチャを、類似したセキュリティ管理を適用するゾーンに分割することが、</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ルイジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティのベストプラクティスです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSの土台となるインフラストラクチャの大半は、AWSの運用チームとセキュリティチームによって管理されるが、お客様は独自のオーバーレイ</t>
+    <rPh sb="4" eb="6">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイハン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ドクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフラストラクチャコンポーネントを構築できる。</t>
+    <rPh sb="18" eb="20">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPC、サブネット、ルーティングテーブル、セグメント化/ゾーン化されたアプリケーション、および、カスタムサービスインスタンス（ユーザーリポジトリ、</t>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNS、時刻サーバーなど）が、AWSの管理するクラウドインフラストラクチャを補完している。</t>
+    <rPh sb="4" eb="6">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティゾーニングとネットワークセグメンテーションは、２つの異なる概念です。</t>
+    <rPh sb="32" eb="33">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガイネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワークセグメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単純に１つのネットワークを別のネットワークから分離する。</t>
+    <rPh sb="0" eb="2">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティゾーニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通のコントロールを使うセキュリティレベルが類似したシステムコンポーネントのグループを作成する。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ルイジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワークセグメントの構築</t>
+    <rPh sb="12" eb="14">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPCを使って、ワークロードまたは組織エンティティごとに分離したネットワークを定義する。</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティグループを使用して、機能とセキュリティ要件が類似したインスタンスに対するアクセスを管理する。</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ルイジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティグループとは、許可され確立されたあらゆるTCPセッションまたはUPD通信チャネルで、双方向のファイアウォールを有効にする</t>
+    <rPh sb="13" eb="15">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ソウホウコウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステートフルファイアウォールです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワークアクセスコントロールリスト（NACL）を使うと、IPトラフィックのステートレス管理が可能になる。　NACLはTCPおよびUDPセッションに</t>
+    <rPh sb="26" eb="27">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限されないが、IPプロトコルをきめ細かく制御でき、送信元/送信先IPアドレスおよびTCPとUDPのポート単位で制御することもできる。</t>
+    <rPh sb="0" eb="2">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ソウシンモト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NACLはセキュリティグループと連携して動作できるが、NACLはトラフィックがセキュリティグループに到達する前でもトラフィックを制御できる。</t>
+    <rPh sb="16" eb="18">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホストベースのファイアウォールを使って、各インスタンスに対するアクセスを制御する。</t>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脅威保護レイヤーをトラフィックフローに作成して、すべてのトラフィックがゾーンを経由するようにします。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケイユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のレイヤにアクセスコントロールを適用します。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティゾーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共有アクセスコントロール</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央のIDAMシステム。　フェデレーションも可能ですが、これは多くの場合、IAMから分離されている。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共有監査ログ記録</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共有ログ記録は、イベント分析と相関、およびセキュリティイベントの追跡に必要です。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共有データ分類</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共有管理インフラストラクチャ</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共有セキュリティ（機密性/整合性）要件</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キミツセイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨウケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4213,6 +11109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N263"/>
   <sheetViews>
     <sheetView topLeftCell="A250" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -5489,10 +12386,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H191"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+    <sheetView tabSelected="1" topLeftCell="A799" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q817" sqref="Q817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6330,6 +13228,2687 @@
         <v>292</v>
       </c>
     </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D193" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D194" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D195" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D197" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C199" s="3">
+        <v>3</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D201" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D202" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D204" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D205" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="207" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D207" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D208" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="210" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C210" s="3">
+        <v>4</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="212" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D212" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="213" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D213" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="214" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D214" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="216" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D216" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="217" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D217" s="3">
+        <v>1</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="218" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D218" s="3">
+        <v>2</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="219" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K219" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="220" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="K220" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="222" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D222" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="224" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D224" s="3">
+        <v>1</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="225" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="L225" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="226" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="L226" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="227" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="L227" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="229" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D229" s="3">
+        <v>2</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="231" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C231" s="3">
+        <v>5</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="233" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D233" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="235" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D235" s="3">
+        <v>1</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="236" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E236" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="237" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E237" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="238" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="E238" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="240" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D240" s="3">
+        <v>2</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="241" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E241" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="242" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E242" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="243" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E243" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="244" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E244" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="246" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D246" s="3">
+        <v>3</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="247" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E247" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="248" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E248" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="250" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D250" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="252" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D252" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="253" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D253" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="255" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D255" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="256" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D256" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="258" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D258" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="259" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D259" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="260" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D260" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="262" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D262" s="3">
+        <v>1</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="264" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E264" s="3">
+        <v>1</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="265" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F265" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="266" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E266" s="3">
+        <v>2</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="267" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E267" s="3">
+        <v>3</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="268" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E268" s="3">
+        <v>4</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="270" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D270" s="3">
+        <v>2</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="272" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E272" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="273" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E273" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="274" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E274" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="276" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E276" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="277" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E277" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="279" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E279" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="281" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E281" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="283" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D283" s="3">
+        <v>3</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="285" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E285" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="286" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E286" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="288" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="E288" s="3">
+        <v>0</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E289" s="3">
+        <v>1</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E290" s="3">
+        <v>2</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E291" s="3">
+        <v>3</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F292" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E293" s="3">
+        <v>4</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E294" s="3">
+        <v>5</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A296" s="3">
+        <v>6</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B298" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B300" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B302" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B304" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B305" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B306" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B308" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B309" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B310" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A312" s="3">
+        <v>7</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B314" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B316" s="3">
+        <v>1</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C318" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C319" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C320" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="322" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C322" s="3">
+        <v>1</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="324" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D324" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="325" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D325" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="326" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D326" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="327" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D327" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="328" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D328" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="330" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D330" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="331" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D331" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="333" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C333" s="3">
+        <v>2</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="335" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D335" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="336" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D336" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D338" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D340" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C342" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C343" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C345" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C346" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B348" s="3">
+        <v>2</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C350" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C352" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B354" s="3">
+        <v>3</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C356" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="358" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C358" s="3">
+        <v>1</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D360" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="361" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D361" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="362" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D362" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="364" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C364" s="3">
+        <v>2</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="366" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D366" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="367" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D367" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="368" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D368" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D369" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="370" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D370" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="372" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C372" s="3">
+        <v>3</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="374" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D374" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="376" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D376" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="377" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D377" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="379" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C379" s="3">
+        <v>4</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="381" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D381" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="382" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D382" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="383" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D383" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="385" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D385" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="387" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C387" s="3">
+        <v>1</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="389" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D389" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="391" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D391" s="3">
+        <v>1</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="392" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E392" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="393" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E393" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="395" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D395" s="3">
+        <v>2</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="396" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E396" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="397" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E397" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="399" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D399" s="3">
+        <v>3</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="400" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E400" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="401" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E401" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="403" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E403" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="405" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D405" s="3">
+        <v>4</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="406" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E406" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="407" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E407" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="409" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D409" s="3">
+        <v>5</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="411" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E411" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="412" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E412" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="414" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E414" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="415" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E415" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="417" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E417" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="419" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D419" s="3">
+        <v>6</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="421" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E421" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="423" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E423" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="424" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E424" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="426" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C426" s="3">
+        <v>2</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="428" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D428" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="430" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D430" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="431" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D431" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="432" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D432" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="434" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D434" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="436" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D436" s="3">
+        <v>1</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="438" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E438" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="439" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E439" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="440" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E440" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="442" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E442" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="444" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D444" s="3">
+        <v>2</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="446" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E446" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="447" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E447" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="449" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E449" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="450" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E450" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="452" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D452" s="3">
+        <v>3</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="454" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E454" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="455" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E455" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="457" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C457" s="3">
+        <v>3</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="459" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D459" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="460" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D460" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="461" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D461" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="462" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D462" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="464" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D464" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="466" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C466" s="3">
+        <v>4</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="468" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D468" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="470" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D470" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="471" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D471" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="473" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D473" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="475" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C475" s="3">
+        <v>5</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="477" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D477" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="478" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D478" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="480" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D480" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D482" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D483" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D484" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B486" s="3">
+        <v>4</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C488" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C490" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C491" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B493" s="3">
+        <v>5</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C495" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C496" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="497" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C497" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="499" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C499" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="500" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C500" s="3">
+        <v>1</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="501" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D501" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="502" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D502" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="503" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D503" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="505" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C505" s="3">
+        <v>2</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="506" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D506" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="507" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D507" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="508" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D508" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="510" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C510" s="3">
+        <v>3</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="511" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D511" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="513" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C513" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="514" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C514" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="516" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C516" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="517" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C517" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="519" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C519" s="3">
+        <v>1</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="521" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D521" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="522" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D522" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="524" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D524" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="525" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D525" s="3">
+        <v>1</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="526" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D526" s="3">
+        <v>2</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="527" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D527" s="3">
+        <v>3</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="J527" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="528" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D528" s="3">
+        <v>4</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="J528" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="529" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D529" s="3">
+        <v>5</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="531" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C531" s="3">
+        <v>2</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="533" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D533" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="534" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D534" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="536" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C536" s="3">
+        <v>3</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="538" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D538" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="540" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C540" s="3">
+        <v>4</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="542" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D542" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="543" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D543" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D545" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D546" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D547" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C549" s="3">
+        <v>5</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D551" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D552" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C554" s="3">
+        <v>6</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D556" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A558" s="3">
+        <v>8</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B560" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B561" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B563" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B564" s="3">
+        <v>1</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B565" s="3">
+        <v>2</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B566" s="3">
+        <v>3</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B567" s="3">
+        <v>4</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B568" s="3">
+        <v>5</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B569" s="3">
+        <v>6</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C570" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B571" s="3">
+        <v>7</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B573" s="3">
+        <v>1</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="575" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C575" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="576" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C576" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="578" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C578" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="579" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C579" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="581" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C581" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="582" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C582" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="584" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C584" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="585" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C585" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="587" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C587" s="3">
+        <v>1</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="588" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D588" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="589" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D589" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="591" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C591" s="3">
+        <v>2</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="592" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D592" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="594" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C594" s="3">
+        <v>3</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="595" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D595" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="596" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D596" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="597" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D597" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="598" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D598" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="600" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C600" s="3">
+        <v>4</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="601" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="D601" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="603" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C603" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="605" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C605" s="3">
+        <v>1</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="I605" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="606" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C606" s="3">
+        <v>2</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="I606" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="607" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C607" s="3">
+        <v>3</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I607" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="608" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I608" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="609" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I609" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="610" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C610" s="3">
+        <v>5</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="I610" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="612" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C612" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="613" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C613" s="3">
+        <v>1</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I613" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="614" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I614" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="615" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I615" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="616" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I616" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="617" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I617" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="618" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C618" s="3">
+        <v>2</v>
+      </c>
+      <c r="D618" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="I618" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="619" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C619" s="3">
+        <v>3</v>
+      </c>
+      <c r="D619" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="I619" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="620" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I620" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="622" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B622" s="3">
+        <v>2</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="624" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C624" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="626" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C626" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="628" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C628" s="3">
+        <v>1</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="629" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D629" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="630" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C630" s="3">
+        <v>2</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="631" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D631" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="632" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C632" s="3">
+        <v>3</v>
+      </c>
+      <c r="D632" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="633" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D633" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="634" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C634" s="3">
+        <v>4</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="636" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B636" s="3">
+        <v>3</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="638" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C638" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="640" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C640" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="641" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C641" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="643" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B643" s="3">
+        <v>4</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="645" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C645" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="647" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B647" s="3">
+        <v>5</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="649" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C649" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="651" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C651" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="652" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C652" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="654" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C654" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="656" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C656" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="658" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C658" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="659" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C659" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="660" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C660" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="661" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C661" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="663" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C663" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="664" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C664" s="3">
+        <v>1</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="I664" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="665" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I665" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="666" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C666" s="3">
+        <v>2</v>
+      </c>
+      <c r="D666" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="I666" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="667" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I667" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="668" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I668" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="669" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I669" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="670" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C670" s="3">
+        <v>3</v>
+      </c>
+      <c r="D670" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="671" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I671" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="672" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I672" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="673" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I673" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="674" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I674" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="675" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C675" s="3">
+        <v>4</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="I675" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="676" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C676" s="3">
+        <v>5</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="I676" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="677" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I677" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="678" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C678" s="3">
+        <v>6</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="I678" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="679" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C679" s="3">
+        <v>7</v>
+      </c>
+      <c r="D679" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="I679" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="680" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I680" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="681" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C681" s="3">
+        <v>8</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="682" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C682" s="3">
+        <v>9</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="I682" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="684" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C684" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="685" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C685" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="686" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C686" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="688" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B688" s="3">
+        <v>6</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="690" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C690" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="692" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C692" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="694" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C694" s="3">
+        <v>1</v>
+      </c>
+      <c r="D694" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="695" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C695" s="3">
+        <v>2</v>
+      </c>
+      <c r="D695" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="696" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C696" s="3">
+        <v>3</v>
+      </c>
+      <c r="D696" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="698" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C698" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="699" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C699" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="701" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C701" s="3">
+        <v>1</v>
+      </c>
+      <c r="D701" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="702" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C702" s="3">
+        <v>2</v>
+      </c>
+      <c r="D702" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="I702" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="703" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C703" s="3">
+        <v>3</v>
+      </c>
+      <c r="D703" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="I703" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="704" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C704" s="3">
+        <v>4</v>
+      </c>
+      <c r="D704" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="706" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C706" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="707" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C707" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="708" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C708" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="710" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C710" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="712" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C712" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="713" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C713" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="714" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C714" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="716" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C716" s="3">
+        <v>1</v>
+      </c>
+      <c r="D716" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="717" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D717" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="718" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C718" s="3">
+        <v>2</v>
+      </c>
+      <c r="D718" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="719" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D719" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="720" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D720" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="721" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C721" s="3">
+        <v>3</v>
+      </c>
+      <c r="D721" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="722" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D722" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="723" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D723" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="724" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D724" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="725" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D725" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="726" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D726" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="727" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D727" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="728" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C728" s="3">
+        <v>4</v>
+      </c>
+      <c r="D728" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="730" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B730" s="3">
+        <v>7</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="732" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C732" s="3">
+        <v>1</v>
+      </c>
+      <c r="D732" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="733" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C733" s="3">
+        <v>2</v>
+      </c>
+      <c r="D733" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="734" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C734" s="3">
+        <v>3</v>
+      </c>
+      <c r="D734" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="735" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C735" s="3">
+        <v>4</v>
+      </c>
+      <c r="D735" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="736" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C736" s="3">
+        <v>5</v>
+      </c>
+      <c r="D736" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C738" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C739" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C741" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A743" s="3">
+        <v>9</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B745" s="3">
+        <v>1</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C747" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C749" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C750" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C752" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="753" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C753" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="755" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C755" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="756" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C756" s="3">
+        <v>1</v>
+      </c>
+      <c r="D756" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="757" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D757" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="758" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D758" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="759" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D759" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="760" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D760" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="761" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D761" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="762" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D762" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="763" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D763" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="764" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D764" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="765" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D765" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="767" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C767" s="3">
+        <v>2</v>
+      </c>
+      <c r="D767" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="768" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D768" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="769" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D769" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="770" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D770" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="772" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C772" s="3">
+        <v>3</v>
+      </c>
+      <c r="D772" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="773" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D773" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="774" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D774" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="775" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D775" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="777" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C777" s="3">
+        <v>4</v>
+      </c>
+      <c r="D777" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="779" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C779" s="3">
+        <v>5</v>
+      </c>
+      <c r="D779" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="780" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D780" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="782" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B782" s="3">
+        <v>2</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="784" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C784" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="785" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C785" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="787" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C787" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="788" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C788" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="790" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C790" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="791" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C791" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="793" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C793" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="795" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C795" s="3">
+        <v>1</v>
+      </c>
+      <c r="D795" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="J795" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="796" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C796" s="3">
+        <v>2</v>
+      </c>
+      <c r="D796" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="J796" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="798" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C798" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="799" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C799" s="3">
+        <v>1</v>
+      </c>
+      <c r="D799" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="800" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C800" s="3">
+        <v>2</v>
+      </c>
+      <c r="D800" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="801" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D801" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="802" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D802" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="803" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C803" s="3">
+        <v>3</v>
+      </c>
+      <c r="D803" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="804" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D804" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="805" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D805" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="806" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C806" s="3">
+        <v>4</v>
+      </c>
+      <c r="D806" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="807" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C807" s="3">
+        <v>5</v>
+      </c>
+      <c r="D807" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="808" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C808" s="3">
+        <v>6</v>
+      </c>
+      <c r="D808" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="810" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C810" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="811" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C811" s="3">
+        <v>1</v>
+      </c>
+      <c r="D811" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="812" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D812" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="813" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C813" s="3">
+        <v>2</v>
+      </c>
+      <c r="D813" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="814" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D814" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="815" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C815" s="3">
+        <v>3</v>
+      </c>
+      <c r="D815" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="816" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C816" s="3">
+        <v>4</v>
+      </c>
+      <c r="D816" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="817" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C817" s="3">
+        <v>5</v>
+      </c>
+      <c r="D817" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
